--- a/Step7_example_master_codelist_BNF_0205_HTNandHF_clinicianinitials.xlsx
+++ b/Step7_example_master_codelist_BNF_0205_HTNandHF_clinicianinitials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Group_work\Emily\Product_browsing_study_data\Codelists\Github_publication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas2.cc.ic.ac.uk\egraul\Github\drug-codelist-creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9067E5A-CC35-482F-813A-867A85EAEF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30CC017-2E28-4AB5-9D01-888557587351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="300" windowWidth="27540" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6721,9 +6721,6 @@
     <t>also_0206_CCB</t>
   </si>
   <si>
-    <t>BNFaddtl</t>
-  </si>
-  <si>
     <t>yesBNFaddtl</t>
   </si>
   <si>
@@ -6737,6 +6734,9 @@
   </si>
   <si>
     <t>≤100</t>
+  </si>
+  <si>
+    <t>Step2b BNFaddtl</t>
   </si>
 </sst>
 </file>
@@ -7250,8 +7250,8 @@
   <dimension ref="A1:AH602"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K557" sqref="K557"/>
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7274,7 +7274,7 @@
     <col min="27" max="28" width="4.7109375" customWidth="1"/>
     <col min="29" max="29" width="9.140625" style="10"/>
     <col min="30" max="30" width="9.140625" style="11"/>
-    <col min="31" max="31" width="9.140625" style="9"/>
+    <col min="31" max="31" width="15.42578125" style="9" customWidth="1"/>
     <col min="32" max="32" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -7370,16 +7370,16 @@
         <v>2232</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>2233</v>
+        <v>2238</v>
       </c>
       <c r="AF1" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="AG1" s="22" t="s">
         <v>2235</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AH1" s="22" t="s">
         <v>2236</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>2237</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -7411,7 +7411,7 @@
         <v>1200</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K2" s="8">
         <v>1</v>
@@ -7489,7 +7489,7 @@
         <v>2196</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K3" s="8">
         <v>1</v>
@@ -7569,7 +7569,7 @@
         <v>2196</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K4" s="8">
         <v>1</v>
@@ -7649,7 +7649,7 @@
         <v>2196</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
@@ -8437,7 +8437,7 @@
         <v>1200</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
@@ -8515,7 +8515,7 @@
         <v>1200</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
@@ -8593,7 +8593,7 @@
         <v>1200</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
@@ -8671,7 +8671,7 @@
         <v>1200</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>1200</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K19" s="8">
         <v>1</v>
@@ -9139,7 +9139,7 @@
         <v>1200</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K24" s="8">
         <v>1</v>
@@ -9375,7 +9375,7 @@
         <v>1200</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K27" s="8">
         <v>1</v>
@@ -9609,7 +9609,7 @@
         <v>1200</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
@@ -9685,7 +9685,7 @@
         <v>2196</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K31" s="8">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         <v>1200</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K32" s="8">
         <v>1</v>
@@ -9843,7 +9843,7 @@
         <v>1200</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K33" s="8">
         <v>1</v>
@@ -9921,7 +9921,7 @@
         <v>1200</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K34" s="8">
         <v>1</v>
@@ -10559,7 +10559,7 @@
         <v>2197</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K42" s="8">
         <v>1</v>
@@ -10637,7 +10637,7 @@
         <v>2197</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K43" s="8">
         <v>1</v>
@@ -10715,7 +10715,7 @@
         <v>2196</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K44" s="8">
         <v>1</v>
@@ -11033,7 +11033,7 @@
         <v>2196</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K48" s="8">
         <v>1</v>
@@ -11113,7 +11113,7 @@
         <v>2196</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K49" s="8">
         <v>1</v>
@@ -11193,7 +11193,7 @@
         <v>2196</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K50" s="8">
         <v>1</v>
@@ -11273,7 +11273,7 @@
         <v>2196</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K51" s="8">
         <v>1</v>
@@ -11353,7 +11353,7 @@
         <v>2196</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K52" s="8">
         <v>1</v>
@@ -11747,7 +11747,7 @@
         <v>1200</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K57" s="8">
         <v>1</v>
@@ -12373,7 +12373,7 @@
         <v>1200</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K65" s="8">
         <v>1</v>
@@ -12451,7 +12451,7 @@
         <v>1200</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K66" s="8">
         <v>1</v>
@@ -12529,7 +12529,7 @@
         <v>1200</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K67" s="8">
         <v>1</v>
@@ -12919,7 +12919,7 @@
         <v>2196</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K72" s="8">
         <v>1</v>
@@ -12999,7 +12999,7 @@
         <v>2196</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K73" s="8">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>2196</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K74" s="8">
         <v>1</v>
@@ -13393,7 +13393,7 @@
         <v>1200</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K78" s="8">
         <v>1</v>
@@ -13471,7 +13471,7 @@
         <v>1200</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K79" s="8">
         <v>1</v>
@@ -13549,7 +13549,7 @@
         <v>2196</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K80" s="8">
         <v>1</v>
@@ -13629,7 +13629,7 @@
         <v>2196</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K81" s="8">
         <v>1</v>
@@ -13709,7 +13709,7 @@
         <v>2196</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K82" s="8">
         <v>1</v>
@@ -13789,7 +13789,7 @@
         <v>1200</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K83" s="8">
         <v>1</v>
@@ -13867,7 +13867,7 @@
         <v>1200</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K84" s="8">
         <v>1</v>
@@ -13943,7 +13943,7 @@
         <v>1200</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K85" s="8">
         <v>1</v>
@@ -14021,7 +14021,7 @@
         <v>2196</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K86" s="8">
         <v>1</v>
@@ -14101,7 +14101,7 @@
         <v>1200</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K87" s="8">
         <v>1</v>
@@ -14179,7 +14179,7 @@
         <v>1200</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K88" s="8">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>1200</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K89" s="8">
         <v>1</v>
@@ -14335,7 +14335,7 @@
         <v>2196</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K90" s="16">
         <v>1</v>
@@ -14374,7 +14374,7 @@
       <c r="AC90" s="16"/>
       <c r="AD90" s="15"/>
       <c r="AE90" s="19" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF90" s="20" t="s">
         <v>1200</v>
@@ -17237,7 +17237,7 @@
         <v>1200</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="3"/>
@@ -17315,7 +17315,7 @@
         <v>1200</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="3"/>
@@ -17393,7 +17393,7 @@
         <v>1200</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="3"/>
@@ -17471,7 +17471,7 @@
         <v>1200</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="3"/>
@@ -17937,7 +17937,7 @@
         <v>1200</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K136" s="16"/>
       <c r="L136" s="17"/>
@@ -18317,7 +18317,7 @@
         <v>2203</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="3"/>
@@ -18397,7 +18397,7 @@
         <v>1200</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K142" s="16"/>
       <c r="L142" s="17"/>
@@ -18863,7 +18863,7 @@
         <v>1200</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="3"/>
@@ -19563,7 +19563,7 @@
         <v>1200</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K157" s="8"/>
       <c r="L157" s="3"/>
@@ -20889,7 +20889,7 @@
         <v>1200</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="3"/>
@@ -20965,7 +20965,7 @@
         <v>1200</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="3"/>
@@ -22509,7 +22509,7 @@
         <v>1200</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="3"/>
@@ -22667,7 +22667,7 @@
         <v>1200</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="3"/>
@@ -22745,7 +22745,7 @@
         <v>1200</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="3"/>
@@ -23055,7 +23055,7 @@
         <v>1200</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K202" s="8"/>
       <c r="L202" s="3"/>
@@ -23213,7 +23213,7 @@
         <v>1200</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K204" s="8"/>
       <c r="L204" s="3"/>
@@ -23985,7 +23985,7 @@
         <v>1200</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K214" s="8"/>
       <c r="L214" s="3"/>
@@ -24943,7 +24943,7 @@
         <v>1200</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="3"/>
@@ -25023,7 +25023,7 @@
         <v>1200</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="3"/>
@@ -25103,7 +25103,7 @@
         <v>1200</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="3"/>
@@ -27419,7 +27419,7 @@
         <v>1200</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K257" s="8"/>
       <c r="L257" s="3"/>
@@ -27497,7 +27497,7 @@
         <v>1200</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K258" s="8"/>
       <c r="L258" s="3"/>
@@ -27575,7 +27575,7 @@
         <v>1200</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K259" s="8"/>
       <c r="L259" s="3"/>
@@ -28203,7 +28203,7 @@
         <v>1200</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K267" s="8"/>
       <c r="L267" s="3"/>
@@ -28597,7 +28597,7 @@
         <v>1200</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K272" s="8"/>
       <c r="L272" s="3"/>
@@ -28675,7 +28675,7 @@
         <v>1200</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K273" s="8"/>
       <c r="L273" s="3"/>
@@ -28753,7 +28753,7 @@
         <v>1200</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K274" s="8"/>
       <c r="L274" s="3"/>
@@ -28831,7 +28831,7 @@
         <v>1200</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K275" s="8"/>
       <c r="L275" s="3"/>
@@ -29535,7 +29535,7 @@
         <v>1200</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K284" s="8"/>
       <c r="L284" s="3"/>
@@ -29615,7 +29615,7 @@
         <v>1200</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K285" s="8"/>
       <c r="L285" s="3"/>
@@ -32163,7 +32163,7 @@
         <v>1200</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K317" s="8"/>
       <c r="L317" s="3"/>
@@ -32481,7 +32481,7 @@
         <v>2207</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K321" s="8"/>
       <c r="L321" s="3"/>
@@ -32561,7 +32561,7 @@
         <v>2207</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K322" s="8"/>
       <c r="L322" s="3"/>
@@ -32641,7 +32641,7 @@
         <v>2207</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K323" s="8"/>
       <c r="L323" s="3"/>
@@ -32721,7 +32721,7 @@
         <v>2209</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K324" s="8"/>
       <c r="L324" s="3"/>
@@ -32801,7 +32801,7 @@
         <v>2209</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K325" s="8"/>
       <c r="L325" s="3"/>
@@ -32881,7 +32881,7 @@
         <v>2209</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K326" s="8"/>
       <c r="L326" s="3"/>
@@ -33039,7 +33039,7 @@
         <v>1200</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K328" s="8"/>
       <c r="L328" s="3"/>
@@ -33197,7 +33197,7 @@
         <v>1200</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K330" s="8"/>
       <c r="L330" s="3"/>
@@ -33595,7 +33595,7 @@
         <v>1200</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K335" s="8"/>
       <c r="L335" s="3"/>
@@ -34215,7 +34215,7 @@
         <v>1200</v>
       </c>
       <c r="J343" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K343" s="8"/>
       <c r="L343" s="3"/>
@@ -34291,7 +34291,7 @@
         <v>1200</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K344" s="8"/>
       <c r="L344" s="3"/>
@@ -34367,7 +34367,7 @@
         <v>1200</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K345" s="8"/>
       <c r="L345" s="3"/>
@@ -34519,7 +34519,7 @@
         <v>1200</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K347" s="8"/>
       <c r="L347" s="3"/>
@@ -36027,7 +36027,7 @@
         <v>1200</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K366" s="8"/>
       <c r="L366" s="3"/>
@@ -36105,7 +36105,7 @@
         <v>1200</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K367" s="8"/>
       <c r="L367" s="3"/>
@@ -36183,7 +36183,7 @@
         <v>1200</v>
       </c>
       <c r="J368" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K368" s="8"/>
       <c r="L368" s="3"/>
@@ -36821,7 +36821,7 @@
         <v>1200</v>
       </c>
       <c r="J376" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K376" s="8"/>
       <c r="L376" s="3"/>
@@ -36897,7 +36897,7 @@
         <v>1200</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K377" s="8"/>
       <c r="L377" s="3"/>
@@ -36973,7 +36973,7 @@
         <v>1200</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K378" s="8"/>
       <c r="L378" s="3"/>
@@ -37049,7 +37049,7 @@
         <v>1200</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K379" s="8"/>
       <c r="L379" s="3"/>
@@ -37125,7 +37125,7 @@
         <v>1200</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K380" s="8"/>
       <c r="L380" s="3"/>
@@ -37201,7 +37201,7 @@
         <v>1200</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K381" s="8"/>
       <c r="L381" s="3"/>
@@ -37277,7 +37277,7 @@
         <v>1200</v>
       </c>
       <c r="J382" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K382" s="8"/>
       <c r="L382" s="3"/>
@@ -37353,7 +37353,7 @@
         <v>1200</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K383" s="8"/>
       <c r="L383" s="3"/>
@@ -37749,7 +37749,7 @@
         <v>1200</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K388" s="8"/>
       <c r="L388" s="3"/>
@@ -38147,7 +38147,7 @@
         <v>1200</v>
       </c>
       <c r="J393" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K393" s="8"/>
       <c r="L393" s="3"/>
@@ -38305,7 +38305,7 @@
         <v>2207</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K395" s="8"/>
       <c r="L395" s="3"/>
@@ -38465,7 +38465,7 @@
         <v>2207</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K397" s="8"/>
       <c r="L397" s="3"/>
@@ -38545,7 +38545,7 @@
         <v>2207</v>
       </c>
       <c r="J398" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K398" s="8"/>
       <c r="L398" s="3"/>
@@ -38627,7 +38627,7 @@
         <v>2207</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K399" s="8"/>
       <c r="L399" s="3"/>
@@ -39029,7 +39029,7 @@
         <v>1200</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K404" s="8"/>
       <c r="L404" s="3"/>
@@ -39425,7 +39425,7 @@
         <v>1200</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K409" s="8"/>
       <c r="L409" s="3"/>
@@ -39817,7 +39817,7 @@
         <v>1200</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K414" s="8"/>
       <c r="L414" s="3"/>
@@ -39895,7 +39895,7 @@
         <v>1200</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K415" s="8"/>
       <c r="L415" s="3"/>
@@ -39973,7 +39973,7 @@
         <v>1200</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K416" s="8"/>
       <c r="L416" s="3"/>
@@ -40053,7 +40053,7 @@
         <v>1200</v>
       </c>
       <c r="J417" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K417" s="8"/>
       <c r="L417" s="3"/>
@@ -40607,7 +40607,7 @@
         <v>1200</v>
       </c>
       <c r="J424" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K424" s="8"/>
       <c r="L424" s="3"/>
@@ -40683,7 +40683,7 @@
         <v>1200</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K425" s="8"/>
       <c r="L425" s="3"/>
@@ -42025,7 +42025,7 @@
         <v>2207</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K442" s="8"/>
       <c r="L442" s="3"/>
@@ -42105,7 +42105,7 @@
         <v>1200</v>
       </c>
       <c r="J443" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K443" s="8"/>
       <c r="L443" s="3"/>
@@ -42183,7 +42183,7 @@
         <v>1200</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K444" s="8"/>
       <c r="L444" s="3"/>
@@ -42261,7 +42261,7 @@
         <v>1200</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K445" s="8"/>
       <c r="L445" s="3"/>
@@ -42419,7 +42419,7 @@
         <v>1200</v>
       </c>
       <c r="J447" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K447" s="8"/>
       <c r="L447" s="3"/>
@@ -43631,7 +43631,7 @@
         <v>2207</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K462" s="8"/>
       <c r="L462" s="3"/>
@@ -43791,7 +43791,7 @@
         <v>1200</v>
       </c>
       <c r="J464" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K464" s="8"/>
       <c r="L464" s="3"/>
@@ -45139,7 +45139,7 @@
         <v>1200</v>
       </c>
       <c r="J481" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K481" s="8"/>
       <c r="L481" s="3"/>
@@ -45217,7 +45217,7 @@
         <v>1200</v>
       </c>
       <c r="J482" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K482" s="8"/>
       <c r="L482" s="3"/>
@@ -45373,7 +45373,7 @@
         <v>1200</v>
       </c>
       <c r="J484" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K484" s="8"/>
       <c r="L484" s="3"/>
@@ -45609,7 +45609,7 @@
         <v>2207</v>
       </c>
       <c r="J487" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K487" s="8"/>
       <c r="L487" s="3"/>
@@ -45689,7 +45689,7 @@
         <v>2207</v>
       </c>
       <c r="J488" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K488" s="8"/>
       <c r="L488" s="3"/>
@@ -45769,7 +45769,7 @@
         <v>2207</v>
       </c>
       <c r="J489" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K489" s="8"/>
       <c r="L489" s="3"/>
@@ -46331,7 +46331,7 @@
         <v>1200</v>
       </c>
       <c r="J496" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K496" s="8"/>
       <c r="L496" s="3"/>
@@ -49929,7 +49929,7 @@
         <v>2207</v>
       </c>
       <c r="J541" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K541" s="8"/>
       <c r="L541" s="3"/>
@@ -50009,7 +50009,7 @@
         <v>2207</v>
       </c>
       <c r="J542" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K542" s="8"/>
       <c r="L542" s="3"/>
@@ -50089,7 +50089,7 @@
         <v>2207</v>
       </c>
       <c r="J543" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K543" s="8"/>
       <c r="L543" s="3"/>
@@ -50409,7 +50409,7 @@
         <v>1200</v>
       </c>
       <c r="J547" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K547" s="8"/>
       <c r="L547" s="3"/>
@@ -50489,7 +50489,7 @@
         <v>1200</v>
       </c>
       <c r="J548" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K548" s="8"/>
       <c r="L548" s="3"/>
@@ -50569,7 +50569,7 @@
         <v>1200</v>
       </c>
       <c r="J549" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K549" s="8"/>
       <c r="L549" s="3"/>
@@ -50647,7 +50647,7 @@
         <v>1200</v>
       </c>
       <c r="J550" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K550" s="8"/>
       <c r="L550" s="3"/>
@@ -52557,7 +52557,7 @@
         <v>1200</v>
       </c>
       <c r="J574" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K574" s="8"/>
       <c r="L574" s="3"/>
@@ -53987,7 +53987,7 @@
         <v>1200</v>
       </c>
       <c r="J592" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K592" s="8"/>
       <c r="L592" s="3"/>
@@ -54065,7 +54065,7 @@
         <v>1200</v>
       </c>
       <c r="J593" s="17" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K593" s="16"/>
       <c r="L593" s="17"/>
@@ -54143,7 +54143,7 @@
         <v>2196</v>
       </c>
       <c r="J594" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K594" s="8"/>
       <c r="L594" s="3"/>
@@ -54180,7 +54180,7 @@
       </c>
       <c r="AD594" s="1"/>
       <c r="AE594" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF594" s="5" t="s">
         <v>1200</v>
@@ -54219,7 +54219,7 @@
         <v>2196</v>
       </c>
       <c r="J595" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K595" s="8"/>
       <c r="L595" s="3"/>
@@ -54256,7 +54256,7 @@
       </c>
       <c r="AD595" s="1"/>
       <c r="AE595" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF595" s="5" t="s">
         <v>1200</v>
@@ -54295,7 +54295,7 @@
         <v>2196</v>
       </c>
       <c r="J596" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K596" s="8"/>
       <c r="L596" s="3"/>
@@ -54332,7 +54332,7 @@
       </c>
       <c r="AD596" s="1"/>
       <c r="AE596" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF596" s="5" t="s">
         <v>1200</v>
@@ -54371,7 +54371,7 @@
         <v>2196</v>
       </c>
       <c r="J597" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K597" s="8"/>
       <c r="L597" s="3"/>
@@ -54408,7 +54408,7 @@
       </c>
       <c r="AD597" s="1"/>
       <c r="AE597" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF597" s="5" t="s">
         <v>1200</v>
@@ -54447,7 +54447,7 @@
         <v>2196</v>
       </c>
       <c r="J598" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K598" s="8"/>
       <c r="L598" s="3"/>
@@ -54484,7 +54484,7 @@
       </c>
       <c r="AD598" s="1"/>
       <c r="AE598" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF598" s="5" t="s">
         <v>1200</v>
@@ -54523,7 +54523,7 @@
         <v>2196</v>
       </c>
       <c r="J599" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K599" s="8"/>
       <c r="L599" s="3"/>
@@ -54560,7 +54560,7 @@
       </c>
       <c r="AD599" s="1"/>
       <c r="AE599" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF599" s="5" t="s">
         <v>1200</v>
@@ -54599,7 +54599,7 @@
         <v>2196</v>
       </c>
       <c r="J600" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K600" s="8"/>
       <c r="L600" s="3"/>
@@ -54636,7 +54636,7 @@
       </c>
       <c r="AD600" s="1"/>
       <c r="AE600" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF600" s="5" t="s">
         <v>1200</v>
@@ -54675,7 +54675,7 @@
         <v>2196</v>
       </c>
       <c r="J601" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K601" s="8"/>
       <c r="L601" s="3"/>
@@ -54712,7 +54712,7 @@
       </c>
       <c r="AD601" s="1"/>
       <c r="AE601" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF601" s="5" t="s">
         <v>1200</v>
@@ -54751,7 +54751,7 @@
         <v>2196</v>
       </c>
       <c r="J602" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K602" s="8"/>
       <c r="L602" s="3"/>
@@ -54788,7 +54788,7 @@
       </c>
       <c r="AD602" s="1"/>
       <c r="AE602" s="9" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="AF602" s="5" t="s">
         <v>1200</v>

--- a/Step7_example_master_codelist_BNF_0205_HTNandHF_clinicianinitials.xlsx
+++ b/Step7_example_master_codelist_BNF_0205_HTNandHF_clinicianinitials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas2.cc.ic.ac.uk\egraul\Github\drug-codelist-creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30CC017-2E28-4AB5-9D01-888557587351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A6E5BD-1A22-49C7-8C19-881B45E38ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="300" windowWidth="27540" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6724,9 +6724,6 @@
     <t>yesBNFaddtl</t>
   </si>
   <si>
-    <t>SearchA_gold_final_0205</t>
-  </si>
-  <si>
     <t>SearchB_chem_drugsubstanceonly</t>
   </si>
   <si>
@@ -6737,6 +6734,9 @@
   </si>
   <si>
     <t>Step2b BNFaddtl</t>
+  </si>
+  <si>
+    <t>SearchA_comprehensive_final_0205</t>
   </si>
 </sst>
 </file>
@@ -7250,8 +7250,8 @@
   <dimension ref="A1:AH602"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE2" sqref="AE2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7370,16 +7370,16 @@
         <v>2232</v>
       </c>
       <c r="AE1" s="21" t="s">
+        <v>2237</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>2238</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="22" t="s">
         <v>2234</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AH1" s="22" t="s">
         <v>2235</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -7411,7 +7411,7 @@
         <v>1200</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K2" s="8">
         <v>1</v>
@@ -7489,7 +7489,7 @@
         <v>2196</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K3" s="8">
         <v>1</v>
@@ -7569,7 +7569,7 @@
         <v>2196</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K4" s="8">
         <v>1</v>
@@ -7649,7 +7649,7 @@
         <v>2196</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K5" s="8">
         <v>1</v>
@@ -8437,7 +8437,7 @@
         <v>1200</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
@@ -8515,7 +8515,7 @@
         <v>1200</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
@@ -8593,7 +8593,7 @@
         <v>1200</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
@@ -8671,7 +8671,7 @@
         <v>1200</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>1200</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K19" s="8">
         <v>1</v>
@@ -9139,7 +9139,7 @@
         <v>1200</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K24" s="8">
         <v>1</v>
@@ -9375,7 +9375,7 @@
         <v>1200</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K27" s="8">
         <v>1</v>
@@ -9609,7 +9609,7 @@
         <v>1200</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K30" s="8">
         <v>1</v>
@@ -9685,7 +9685,7 @@
         <v>2196</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K31" s="8">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         <v>1200</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K32" s="8">
         <v>1</v>
@@ -9843,7 +9843,7 @@
         <v>1200</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K33" s="8">
         <v>1</v>
@@ -9921,7 +9921,7 @@
         <v>1200</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K34" s="8">
         <v>1</v>
@@ -10559,7 +10559,7 @@
         <v>2197</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K42" s="8">
         <v>1</v>
@@ -10637,7 +10637,7 @@
         <v>2197</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K43" s="8">
         <v>1</v>
@@ -10715,7 +10715,7 @@
         <v>2196</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K44" s="8">
         <v>1</v>
@@ -11033,7 +11033,7 @@
         <v>2196</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K48" s="8">
         <v>1</v>
@@ -11113,7 +11113,7 @@
         <v>2196</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K49" s="8">
         <v>1</v>
@@ -11193,7 +11193,7 @@
         <v>2196</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K50" s="8">
         <v>1</v>
@@ -11273,7 +11273,7 @@
         <v>2196</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K51" s="8">
         <v>1</v>
@@ -11353,7 +11353,7 @@
         <v>2196</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K52" s="8">
         <v>1</v>
@@ -11747,7 +11747,7 @@
         <v>1200</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K57" s="8">
         <v>1</v>
@@ -12373,7 +12373,7 @@
         <v>1200</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K65" s="8">
         <v>1</v>
@@ -12451,7 +12451,7 @@
         <v>1200</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K66" s="8">
         <v>1</v>
@@ -12529,7 +12529,7 @@
         <v>1200</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K67" s="8">
         <v>1</v>
@@ -12919,7 +12919,7 @@
         <v>2196</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K72" s="8">
         <v>1</v>
@@ -12999,7 +12999,7 @@
         <v>2196</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K73" s="8">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>2196</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K74" s="8">
         <v>1</v>
@@ -13393,7 +13393,7 @@
         <v>1200</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K78" s="8">
         <v>1</v>
@@ -13471,7 +13471,7 @@
         <v>1200</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K79" s="8">
         <v>1</v>
@@ -13549,7 +13549,7 @@
         <v>2196</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K80" s="8">
         <v>1</v>
@@ -13629,7 +13629,7 @@
         <v>2196</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K81" s="8">
         <v>1</v>
@@ -13709,7 +13709,7 @@
         <v>2196</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K82" s="8">
         <v>1</v>
@@ -13789,7 +13789,7 @@
         <v>1200</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K83" s="8">
         <v>1</v>
@@ -13867,7 +13867,7 @@
         <v>1200</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K84" s="8">
         <v>1</v>
@@ -13943,7 +13943,7 @@
         <v>1200</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K85" s="8">
         <v>1</v>
@@ -14021,7 +14021,7 @@
         <v>2196</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K86" s="8">
         <v>1</v>
@@ -14101,7 +14101,7 @@
         <v>1200</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K87" s="8">
         <v>1</v>
@@ -14179,7 +14179,7 @@
         <v>1200</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K88" s="8">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>1200</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K89" s="8">
         <v>1</v>
@@ -14335,7 +14335,7 @@
         <v>2196</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K90" s="16">
         <v>1</v>
@@ -17237,7 +17237,7 @@
         <v>1200</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K127" s="8"/>
       <c r="L127" s="3"/>
@@ -17315,7 +17315,7 @@
         <v>1200</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="3"/>
@@ -17393,7 +17393,7 @@
         <v>1200</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K129" s="8"/>
       <c r="L129" s="3"/>
@@ -17471,7 +17471,7 @@
         <v>1200</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K130" s="8"/>
       <c r="L130" s="3"/>
@@ -17937,7 +17937,7 @@
         <v>1200</v>
       </c>
       <c r="J136" s="17" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K136" s="16"/>
       <c r="L136" s="17"/>
@@ -18317,7 +18317,7 @@
         <v>2203</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K141" s="8"/>
       <c r="L141" s="3"/>
@@ -18397,7 +18397,7 @@
         <v>1200</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K142" s="16"/>
       <c r="L142" s="17"/>
@@ -18863,7 +18863,7 @@
         <v>1200</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="3"/>
@@ -19563,7 +19563,7 @@
         <v>1200</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K157" s="8"/>
       <c r="L157" s="3"/>
@@ -20889,7 +20889,7 @@
         <v>1200</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K174" s="8"/>
       <c r="L174" s="3"/>
@@ -20965,7 +20965,7 @@
         <v>1200</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K175" s="8"/>
       <c r="L175" s="3"/>
@@ -22509,7 +22509,7 @@
         <v>1200</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K195" s="8"/>
       <c r="L195" s="3"/>
@@ -22667,7 +22667,7 @@
         <v>1200</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K197" s="8"/>
       <c r="L197" s="3"/>
@@ -22745,7 +22745,7 @@
         <v>1200</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K198" s="8"/>
       <c r="L198" s="3"/>
@@ -23055,7 +23055,7 @@
         <v>1200</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K202" s="8"/>
       <c r="L202" s="3"/>
@@ -23213,7 +23213,7 @@
         <v>1200</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K204" s="8"/>
       <c r="L204" s="3"/>
@@ -23985,7 +23985,7 @@
         <v>1200</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K214" s="8"/>
       <c r="L214" s="3"/>
@@ -24943,7 +24943,7 @@
         <v>1200</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K226" s="8"/>
       <c r="L226" s="3"/>
@@ -25023,7 +25023,7 @@
         <v>1200</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K227" s="8"/>
       <c r="L227" s="3"/>
@@ -25103,7 +25103,7 @@
         <v>1200</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K228" s="8"/>
       <c r="L228" s="3"/>
@@ -27419,7 +27419,7 @@
         <v>1200</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K257" s="8"/>
       <c r="L257" s="3"/>
@@ -27497,7 +27497,7 @@
         <v>1200</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K258" s="8"/>
       <c r="L258" s="3"/>
@@ -27575,7 +27575,7 @@
         <v>1200</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K259" s="8"/>
       <c r="L259" s="3"/>
@@ -28203,7 +28203,7 @@
         <v>1200</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K267" s="8"/>
       <c r="L267" s="3"/>
@@ -28597,7 +28597,7 @@
         <v>1200</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K272" s="8"/>
       <c r="L272" s="3"/>
@@ -28675,7 +28675,7 @@
         <v>1200</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K273" s="8"/>
       <c r="L273" s="3"/>
@@ -28753,7 +28753,7 @@
         <v>1200</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K274" s="8"/>
       <c r="L274" s="3"/>
@@ -28831,7 +28831,7 @@
         <v>1200</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K275" s="8"/>
       <c r="L275" s="3"/>
@@ -29535,7 +29535,7 @@
         <v>1200</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K284" s="8"/>
       <c r="L284" s="3"/>
@@ -29615,7 +29615,7 @@
         <v>1200</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K285" s="8"/>
       <c r="L285" s="3"/>
@@ -32163,7 +32163,7 @@
         <v>1200</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K317" s="8"/>
       <c r="L317" s="3"/>
@@ -32481,7 +32481,7 @@
         <v>2207</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K321" s="8"/>
       <c r="L321" s="3"/>
@@ -32561,7 +32561,7 @@
         <v>2207</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K322" s="8"/>
       <c r="L322" s="3"/>
@@ -32641,7 +32641,7 @@
         <v>2207</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K323" s="8"/>
       <c r="L323" s="3"/>
@@ -32721,7 +32721,7 @@
         <v>2209</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K324" s="8"/>
       <c r="L324" s="3"/>
@@ -32801,7 +32801,7 @@
         <v>2209</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K325" s="8"/>
       <c r="L325" s="3"/>
@@ -32881,7 +32881,7 @@
         <v>2209</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K326" s="8"/>
       <c r="L326" s="3"/>
@@ -33039,7 +33039,7 @@
         <v>1200</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K328" s="8"/>
       <c r="L328" s="3"/>
@@ -33197,7 +33197,7 @@
         <v>1200</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K330" s="8"/>
       <c r="L330" s="3"/>
@@ -33595,7 +33595,7 @@
         <v>1200</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K335" s="8"/>
       <c r="L335" s="3"/>
@@ -34215,7 +34215,7 @@
         <v>1200</v>
       </c>
       <c r="J343" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K343" s="8"/>
       <c r="L343" s="3"/>
@@ -34291,7 +34291,7 @@
         <v>1200</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K344" s="8"/>
       <c r="L344" s="3"/>
@@ -34367,7 +34367,7 @@
         <v>1200</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K345" s="8"/>
       <c r="L345" s="3"/>
@@ -34519,7 +34519,7 @@
         <v>1200</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K347" s="8"/>
       <c r="L347" s="3"/>
@@ -36027,7 +36027,7 @@
         <v>1200</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K366" s="8"/>
       <c r="L366" s="3"/>
@@ -36105,7 +36105,7 @@
         <v>1200</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K367" s="8"/>
       <c r="L367" s="3"/>
@@ -36183,7 +36183,7 @@
         <v>1200</v>
       </c>
       <c r="J368" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K368" s="8"/>
       <c r="L368" s="3"/>
@@ -36821,7 +36821,7 @@
         <v>1200</v>
       </c>
       <c r="J376" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K376" s="8"/>
       <c r="L376" s="3"/>
@@ -36897,7 +36897,7 @@
         <v>1200</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K377" s="8"/>
       <c r="L377" s="3"/>
@@ -36973,7 +36973,7 @@
         <v>1200</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K378" s="8"/>
       <c r="L378" s="3"/>
@@ -37049,7 +37049,7 @@
         <v>1200</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K379" s="8"/>
       <c r="L379" s="3"/>
@@ -37125,7 +37125,7 @@
         <v>1200</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K380" s="8"/>
       <c r="L380" s="3"/>
@@ -37201,7 +37201,7 @@
         <v>1200</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K381" s="8"/>
       <c r="L381" s="3"/>
@@ -37277,7 +37277,7 @@
         <v>1200</v>
       </c>
       <c r="J382" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K382" s="8"/>
       <c r="L382" s="3"/>
@@ -37353,7 +37353,7 @@
         <v>1200</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K383" s="8"/>
       <c r="L383" s="3"/>
@@ -37749,7 +37749,7 @@
         <v>1200</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K388" s="8"/>
       <c r="L388" s="3"/>
@@ -38147,7 +38147,7 @@
         <v>1200</v>
       </c>
       <c r="J393" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K393" s="8"/>
       <c r="L393" s="3"/>
@@ -38305,7 +38305,7 @@
         <v>2207</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K395" s="8"/>
       <c r="L395" s="3"/>
@@ -38465,7 +38465,7 @@
         <v>2207</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K397" s="8"/>
       <c r="L397" s="3"/>
@@ -38545,7 +38545,7 @@
         <v>2207</v>
       </c>
       <c r="J398" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K398" s="8"/>
       <c r="L398" s="3"/>
@@ -38627,7 +38627,7 @@
         <v>2207</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K399" s="8"/>
       <c r="L399" s="3"/>
@@ -39029,7 +39029,7 @@
         <v>1200</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K404" s="8"/>
       <c r="L404" s="3"/>
@@ -39425,7 +39425,7 @@
         <v>1200</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K409" s="8"/>
       <c r="L409" s="3"/>
@@ -39817,7 +39817,7 @@
         <v>1200</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K414" s="8"/>
       <c r="L414" s="3"/>
@@ -39895,7 +39895,7 @@
         <v>1200</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K415" s="8"/>
       <c r="L415" s="3"/>
@@ -39973,7 +39973,7 @@
         <v>1200</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K416" s="8"/>
       <c r="L416" s="3"/>
@@ -40053,7 +40053,7 @@
         <v>1200</v>
       </c>
       <c r="J417" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K417" s="8"/>
       <c r="L417" s="3"/>
@@ -40607,7 +40607,7 @@
         <v>1200</v>
       </c>
       <c r="J424" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K424" s="8"/>
       <c r="L424" s="3"/>
@@ -40683,7 +40683,7 @@
         <v>1200</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K425" s="8"/>
       <c r="L425" s="3"/>
@@ -42025,7 +42025,7 @@
         <v>2207</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K442" s="8"/>
       <c r="L442" s="3"/>
@@ -42105,7 +42105,7 @@
         <v>1200</v>
       </c>
       <c r="J443" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K443" s="8"/>
       <c r="L443" s="3"/>
@@ -42183,7 +42183,7 @@
         <v>1200</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K444" s="8"/>
       <c r="L444" s="3"/>
@@ -42261,7 +42261,7 @@
         <v>1200</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K445" s="8"/>
       <c r="L445" s="3"/>
@@ -42419,7 +42419,7 @@
         <v>1200</v>
       </c>
       <c r="J447" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K447" s="8"/>
       <c r="L447" s="3"/>
@@ -43631,7 +43631,7 @@
         <v>2207</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K462" s="8"/>
       <c r="L462" s="3"/>
@@ -43791,7 +43791,7 @@
         <v>1200</v>
       </c>
       <c r="J464" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K464" s="8"/>
       <c r="L464" s="3"/>
@@ -45139,7 +45139,7 @@
         <v>1200</v>
       </c>
       <c r="J481" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K481" s="8"/>
       <c r="L481" s="3"/>
@@ -45217,7 +45217,7 @@
         <v>1200</v>
       </c>
       <c r="J482" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K482" s="8"/>
       <c r="L482" s="3"/>
@@ -45373,7 +45373,7 @@
         <v>1200</v>
       </c>
       <c r="J484" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K484" s="8"/>
       <c r="L484" s="3"/>
@@ -45609,7 +45609,7 @@
         <v>2207</v>
       </c>
       <c r="J487" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K487" s="8"/>
       <c r="L487" s="3"/>
@@ -45689,7 +45689,7 @@
         <v>2207</v>
       </c>
       <c r="J488" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K488" s="8"/>
       <c r="L488" s="3"/>
@@ -45769,7 +45769,7 @@
         <v>2207</v>
       </c>
       <c r="J489" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K489" s="8"/>
       <c r="L489" s="3"/>
@@ -46331,7 +46331,7 @@
         <v>1200</v>
       </c>
       <c r="J496" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K496" s="8"/>
       <c r="L496" s="3"/>
@@ -49929,7 +49929,7 @@
         <v>2207</v>
       </c>
       <c r="J541" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K541" s="8"/>
       <c r="L541" s="3"/>
@@ -50009,7 +50009,7 @@
         <v>2207</v>
       </c>
       <c r="J542" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K542" s="8"/>
       <c r="L542" s="3"/>
@@ -50089,7 +50089,7 @@
         <v>2207</v>
       </c>
       <c r="J543" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K543" s="8"/>
       <c r="L543" s="3"/>
@@ -50409,7 +50409,7 @@
         <v>1200</v>
       </c>
       <c r="J547" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K547" s="8"/>
       <c r="L547" s="3"/>
@@ -50489,7 +50489,7 @@
         <v>1200</v>
       </c>
       <c r="J548" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K548" s="8"/>
       <c r="L548" s="3"/>
@@ -50569,7 +50569,7 @@
         <v>1200</v>
       </c>
       <c r="J549" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K549" s="8"/>
       <c r="L549" s="3"/>
@@ -50647,7 +50647,7 @@
         <v>1200</v>
       </c>
       <c r="J550" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K550" s="8"/>
       <c r="L550" s="3"/>
@@ -52557,7 +52557,7 @@
         <v>1200</v>
       </c>
       <c r="J574" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K574" s="8"/>
       <c r="L574" s="3"/>
@@ -53987,7 +53987,7 @@
         <v>1200</v>
       </c>
       <c r="J592" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K592" s="8"/>
       <c r="L592" s="3"/>
@@ -54065,7 +54065,7 @@
         <v>1200</v>
       </c>
       <c r="J593" s="17" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K593" s="16"/>
       <c r="L593" s="17"/>
@@ -54143,7 +54143,7 @@
         <v>2196</v>
       </c>
       <c r="J594" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K594" s="8"/>
       <c r="L594" s="3"/>
@@ -54219,7 +54219,7 @@
         <v>2196</v>
       </c>
       <c r="J595" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K595" s="8"/>
       <c r="L595" s="3"/>
@@ -54295,7 +54295,7 @@
         <v>2196</v>
       </c>
       <c r="J596" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K596" s="8"/>
       <c r="L596" s="3"/>
@@ -54371,7 +54371,7 @@
         <v>2196</v>
       </c>
       <c r="J597" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K597" s="8"/>
       <c r="L597" s="3"/>
@@ -54447,7 +54447,7 @@
         <v>2196</v>
       </c>
       <c r="J598" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K598" s="8"/>
       <c r="L598" s="3"/>
@@ -54523,7 +54523,7 @@
         <v>2196</v>
       </c>
       <c r="J599" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K599" s="8"/>
       <c r="L599" s="3"/>
@@ -54599,7 +54599,7 @@
         <v>2196</v>
       </c>
       <c r="J600" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K600" s="8"/>
       <c r="L600" s="3"/>
@@ -54675,7 +54675,7 @@
         <v>2196</v>
       </c>
       <c r="J601" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K601" s="8"/>
       <c r="L601" s="3"/>
@@ -54751,7 +54751,7 @@
         <v>2196</v>
       </c>
       <c r="J602" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K602" s="8"/>
       <c r="L602" s="3"/>
